--- a/Administrativas/DirectorioRegionales.xlsx
+++ b/Administrativas/DirectorioRegionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\Administrativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7836A8A-26C9-4077-85A8-0556E9C5C3F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11B1242-FDE3-4567-A816-A6A18A5F7542}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DireccionesRegionales" sheetId="2" r:id="rId1"/>
@@ -3644,7 +3644,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
